--- a/IMS/src/main/webapp/excelTemplate/issueDetail.xlsx
+++ b/IMS/src/main/webapp/excelTemplate/issueDetail.xlsx
@@ -157,107 +157,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${issueInfo.eRequestDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${issueInfo.eIssueContent}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${issueInfo.eCreationDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${issueInfo.eAuthor}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${issueInfo.eActualDetails}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${handler.eRowWorker}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach var="handler" items="${handler}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${handler.eRowDepartment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${handler.eRowPosition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${handler.eRowContact}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${handler.eRowNotes}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach var="asset" items="${asset}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.eNetworkType }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach var="file" items="${file}" &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${file.eFileName }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.aAssetType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.aAssetNumber }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.aAssetName }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.aAssetModel }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.eHostName }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.eIp }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${asset.eOs }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${issueInfo.eRequesterOrg}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${issueInfo.eRequestDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${issueInfo.eIssueContent}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${issueInfo.eCreationDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${issueInfo.eAuthor}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${issueInfo.eActualDetails}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${handler.eRowWorker}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach var="handler" items="${handler}" &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${handler.eRowDepartment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${handler.eRowPosition}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${handler.eRowContact}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${handler.eRowNotes}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach var="asset" items="${asset}" &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.eNetworkType }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach var="file" items="${file}" &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${file.eFileName }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.aAssetType}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.aAssetNumber }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.aAssetName }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.aAssetModel }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.eHostName }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.eIp }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${asset.eOs }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,6 +837,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,37 +873,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,16 +1600,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
@@ -1651,7 +1648,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -1660,7 +1657,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
@@ -1670,120 +1667,120 @@
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="G8" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="A11" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="A13" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
@@ -1791,7 +1788,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -1805,7 +1802,7 @@
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
@@ -1819,7 +1816,7 @@
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
@@ -1846,30 +1843,30 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48" t="s">
+      <c r="H20" s="43"/>
+      <c r="I20" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="16"/>
@@ -1883,29 +1880,29 @@
     </row>
     <row r="22" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="22"/>
@@ -1939,17 +1936,17 @@
       <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="48"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="29" t="s">
         <v>12</v>
       </c>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="31"/>
@@ -1979,35 +1976,35 @@
     </row>
     <row r="29" spans="1:10" s="3" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="J29" s="35" t="s">
         <v>58</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="26"/>
@@ -2038,40 +2035,36 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="A35" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A1:H1"/>
@@ -2088,7 +2081,11 @@
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A34:J34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
